--- a/media/aa_outputs/aaOutputSheet.xlsx
+++ b/media/aa_outputs/aaOutputSheet.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,21 @@
           <t>Code 3</t>
         </is>
       </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Code 4</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Code 5</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Code 6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n"/>
@@ -517,6 +532,21 @@
           <t>3</t>
         </is>
       </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -526,15 +556,30 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Code 40</t>
+          <t>Code 11</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Code 26</t>
+          <t>Code 42</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Code 44</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>Code 11</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>Code 1</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>Code 25</t>
         </is>
@@ -547,14 +592,23 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.990909090909091</v>
+        <v>0.53125</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.551094890510949</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" s="4" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>1.070666666666667</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,17 +618,32 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Code 41</t>
+          <t>Code 3</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Code 34</t>
+          <t>Code 8</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Code 1</t>
+          <t>Code 43</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>Code 3</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>Code 25</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>Code 2</t>
         </is>
       </c>
     </row>
@@ -585,13 +654,22 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.7372881355932204</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.9682539682539683</v>
       </c>
     </row>
     <row r="7">
@@ -602,17 +680,32 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
+          <t>Code 4</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
           <t>Code 9</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Code 25</t>
-        </is>
-      </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
+          <t>Code 8</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr">
+        <is>
+          <t>Code 4</t>
+        </is>
+      </c>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
           <t>Code 2</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>Code 1</t>
         </is>
       </c>
     </row>
@@ -623,13 +716,22 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.1858974358974359</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.8412698412698413</v>
+        <v>0.9808917197452229</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.8133333333333334</v>
       </c>
     </row>
     <row r="9">
@@ -640,17 +742,32 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
+          <t>Code 5</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
           <t>Code 10</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>Code 22</t>
-        </is>
-      </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Code 16</t>
+          <t>Code 9</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>Code 5</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>Code 40</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>Code 17</t>
         </is>
       </c>
     </row>
@@ -661,13 +778,22 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>0.1557377049180328</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.9808917197452229</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0.74375</v>
       </c>
     </row>
     <row r="11">
@@ -678,17 +804,32 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Code 11</t>
+          <t>Code 6</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Code 23</t>
+          <t>Code 1</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Code 18</t>
+          <t>Code 10</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>Code 6</t>
+        </is>
+      </c>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>Code 16</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>Code 10</t>
         </is>
       </c>
     </row>
@@ -699,13 +840,22 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>0.1507936507936508</v>
+        <v>0</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>0.8088235294117647</v>
+        <v>0.9808917197452229</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="4" t="n">
+        <v>0.8064516129032258</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>0.7092198581560284</v>
       </c>
     </row>
     <row r="13">
@@ -715,13 +865,22 @@
         </is>
       </c>
       <c r="B13" s="5" t="n">
-        <v>-3.5</v>
+        <v>2.5</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>4</v>
+        <v>4.5</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="14">
@@ -730,8 +889,10 @@
           <t>Score</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n">
-        <v/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
       </c>
       <c r="C14" s="5" t="n">
         <v/>
@@ -739,6 +900,19 @@
       <c r="D14" s="5" t="n">
         <v/>
       </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v/>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -753,7 +927,16 @@
         <v>0</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.8666666666666667</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.070666666666667</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.8133333333333334</v>
       </c>
     </row>
     <row r="16">
@@ -769,7 +952,16 @@
         <v>0</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.8412698412698413</v>
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.9682539682539683</v>
       </c>
     </row>
     <row r="17">
@@ -779,13 +971,22 @@
         </is>
       </c>
       <c r="B17" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="18">
@@ -795,13 +996,22 @@
         </is>
       </c>
       <c r="B18" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
@@ -811,13 +1021,22 @@
         </is>
       </c>
       <c r="B19" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -827,13 +1046,22 @@
         </is>
       </c>
       <c r="B20" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
@@ -843,13 +1071,22 @@
         </is>
       </c>
       <c r="B21" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
@@ -862,10 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C22" s="6" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.9808917197452229</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.6172839506172839</v>
       </c>
     </row>
     <row r="23">
@@ -875,13 +1121,22 @@
         </is>
       </c>
       <c r="B23" s="6" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C23" s="6" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.9808917197452229</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.7734806629834254</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.6172839506172839</v>
       </c>
     </row>
     <row r="24">
@@ -891,13 +1146,22 @@
         </is>
       </c>
       <c r="B24" s="6" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C24" s="6" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.8014184397163121</v>
+        <v>0.9808917197452229</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.7883817427385892</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>0.7092198581560284</v>
       </c>
     </row>
     <row r="25">
@@ -907,13 +1171,22 @@
         </is>
       </c>
       <c r="B25" s="6" t="n">
-        <v>0.7</v>
+        <v>0.53125</v>
       </c>
       <c r="C25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>0.53125</v>
       </c>
     </row>
     <row r="26">
@@ -929,6 +1202,15 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0.7380952380952381</v>
+      </c>
+      <c r="G26" s="6" t="n">
         <v>0.6190476190476191</v>
       </c>
     </row>
@@ -945,7 +1227,16 @@
         <v>0</v>
       </c>
       <c r="D27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6" t="n">
         <v>0.4878048780487805</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0.3658536585365854</v>
       </c>
     </row>
     <row r="28">
@@ -961,7 +1252,16 @@
         <v>0</v>
       </c>
       <c r="D28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6" t="n">
         <v>0.4878048780487805</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>0.3658536585365854</v>
       </c>
     </row>
     <row r="29">
@@ -977,7 +1277,16 @@
         <v>0</v>
       </c>
       <c r="D29" s="6" t="n">
-        <v>0.6219512195121951</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>0.6097560975609756</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>0.4878048780487805</v>
       </c>
     </row>
     <row r="30">
@@ -993,7 +1302,16 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>0.8387096774193549</v>
+        <v>0</v>
+      </c>
+      <c r="E30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6" t="n">
+        <v>0.8064516129032258</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>0.6451612903225806</v>
       </c>
     </row>
     <row r="31">
@@ -1009,7 +1327,16 @@
         <v>0</v>
       </c>
       <c r="D31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6" t="n">
         <v>0.80625</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>0.74375</v>
       </c>
     </row>
     <row r="32">
@@ -1019,13 +1346,22 @@
         </is>
       </c>
       <c r="B32" s="6" t="n">
-        <v>0.6363636363636364</v>
+        <v>0</v>
       </c>
       <c r="C32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.8088235294117647</v>
+        <v>0.4183673469387755</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6" t="n">
+        <v>0.6853932584269663</v>
+      </c>
+      <c r="G32" s="6" t="n">
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="33">
@@ -1035,12 +1371,21 @@
         </is>
       </c>
       <c r="B33" s="6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="C33" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G33" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1051,13 +1396,22 @@
         </is>
       </c>
       <c r="B34" s="6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="35">
@@ -1070,9 +1424,18 @@
         <v>0</v>
       </c>
       <c r="C35" s="6" t="n">
-        <v>0.1397058823529412</v>
+        <v>0</v>
       </c>
       <c r="D35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1086,9 +1449,18 @@
         <v>0</v>
       </c>
       <c r="C36" s="6" t="n">
-        <v>0.1557377049180328</v>
+        <v>0</v>
       </c>
       <c r="D36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1102,9 +1474,18 @@
         <v>0</v>
       </c>
       <c r="C37" s="6" t="n">
-        <v>0.1507936507936508</v>
+        <v>0</v>
       </c>
       <c r="D37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1118,9 +1499,18 @@
         <v>0</v>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.1301369863013699</v>
+        <v>0</v>
       </c>
       <c r="D38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1134,9 +1524,18 @@
         <v>0</v>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1858974358974359</v>
+        <v>0</v>
       </c>
       <c r="D39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1150,9 +1549,18 @@
         <v>0</v>
       </c>
       <c r="C40" s="6" t="n">
-        <v>0.551094890510949</v>
+        <v>0</v>
       </c>
       <c r="D40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1163,12 +1571,21 @@
         </is>
       </c>
       <c r="B41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="6" t="n">
         <v>0.7</v>
       </c>
-      <c r="C41" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="6" t="n">
+      <c r="G41" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1187,6 +1604,15 @@
       <c r="D42" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="E42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1203,6 +1629,15 @@
       <c r="D43" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="E43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1217,7 +1652,16 @@
         <v>0</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.3322033898305085</v>
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="6" t="n">
+        <v>0.3559322033898305</v>
+      </c>
+      <c r="G44" s="6" t="n">
+        <v>0.311864406779661</v>
       </c>
     </row>
     <row r="45">
@@ -1227,13 +1671,22 @@
         </is>
       </c>
       <c r="B45" s="6" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5</v>
       </c>
       <c r="C45" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3322033898305085</v>
+        <v>0</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F45" s="6" t="n">
+        <v>0.5145631067961165</v>
+      </c>
+      <c r="G45" s="6" t="n">
+        <v>0.3662650602409638</v>
       </c>
     </row>
     <row r="46">
@@ -1251,6 +1704,15 @@
       <c r="D46" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="E46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1267,6 +1729,15 @@
       <c r="D47" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="E47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1278,9 +1749,18 @@
         <v>0</v>
       </c>
       <c r="C48" s="6" t="n">
-        <v>0.5333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1299,6 +1779,15 @@
       <c r="D49" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="E49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1315,6 +1804,15 @@
       <c r="D50" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="E50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1331,6 +1829,15 @@
       <c r="D51" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="E51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1347,6 +1854,15 @@
       <c r="D52" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="E52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1363,6 +1879,15 @@
       <c r="D53" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="E53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1371,12 +1896,21 @@
         </is>
       </c>
       <c r="B54" s="6" t="n">
-        <v>0.990909090909091</v>
+        <v>0</v>
       </c>
       <c r="C54" s="6" t="n">
         <v>0</v>
       </c>
       <c r="D54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="6" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="G54" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1387,12 +1921,21 @@
         </is>
       </c>
       <c r="B55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" s="6" t="n">
         <v>0.7372881355932204</v>
       </c>
-      <c r="C55" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6" t="n">
+      <c r="G55" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1406,9 +1949,18 @@
         <v>0</v>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,6 +1977,15 @@
         <v>0</v>
       </c>
       <c r="D57" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1441,6 +2002,15 @@
         <v>0</v>
       </c>
       <c r="D58" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1459,6 +2029,15 @@
       <c r="D59" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="E59" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1473,6 +2052,15 @@
         <v>0</v>
       </c>
       <c r="D60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1530,7 +2118,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6" t="n">
         <v/>
@@ -1578,10 +2166,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0</v>
+        <v>0.1666666716337204</v>
       </c>
     </row>
     <row r="7">

--- a/media/aa_outputs/aaOutputSheet.xlsx
+++ b/media/aa_outputs/aaOutputSheet.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,11 @@
           <t>Code 6</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Code 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n"/>
@@ -547,6 +552,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -584,6 +594,11 @@
           <t>Code 25</t>
         </is>
       </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>Code 25</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +624,9 @@
       <c r="G4" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="H4" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -646,6 +664,11 @@
           <t>Code 2</t>
         </is>
       </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>Code 16</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -671,6 +694,9 @@
       <c r="G6" s="4" t="n">
         <v>0.9682539682539683</v>
       </c>
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -708,6 +734,11 @@
           <t>Code 1</t>
         </is>
       </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>Code 1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -733,6 +764,9 @@
       <c r="G8" s="4" t="n">
         <v>0.8133333333333334</v>
       </c>
+      <c r="H8" s="4" t="n">
+        <v>0.8133333333333334</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -770,6 +804,11 @@
           <t>Code 17</t>
         </is>
       </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>Code 17</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -795,6 +834,9 @@
       <c r="G10" s="4" t="n">
         <v>0.74375</v>
       </c>
+      <c r="H10" s="4" t="n">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -832,6 +874,11 @@
           <t>Code 10</t>
         </is>
       </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>Code 2</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -857,6 +904,9 @@
       <c r="G12" s="4" t="n">
         <v>0.7092198581560284</v>
       </c>
+      <c r="H12" s="4" t="n">
+        <v>0.8095238095238095</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -882,6 +932,9 @@
       <c r="G13" s="5" t="n">
         <v>4.25</v>
       </c>
+      <c r="H13" s="5" t="n">
+        <v>4.75</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -913,6 +966,9 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H14" s="5" t="n">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -938,6 +994,9 @@
       <c r="G15" s="6" t="n">
         <v>0.8133333333333334</v>
       </c>
+      <c r="H15" s="6" t="n">
+        <v>0.8133333333333334</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -963,6 +1022,9 @@
       <c r="G16" s="6" t="n">
         <v>0.9682539682539683</v>
       </c>
+      <c r="H16" s="6" t="n">
+        <v>0.8095238095238095</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -988,6 +1050,9 @@
       <c r="G17" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="H17" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1013,6 +1078,9 @@
       <c r="G18" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="H18" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1038,6 +1106,9 @@
       <c r="G19" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="H19" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1063,6 +1134,9 @@
       <c r="G20" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="H20" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1088,6 +1162,9 @@
       <c r="G21" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="H21" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1113,6 +1190,9 @@
       <c r="G22" s="6" t="n">
         <v>0.6172839506172839</v>
       </c>
+      <c r="H22" s="6" t="n">
+        <v>0.7901234567901234</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1138,6 +1218,9 @@
       <c r="G23" s="6" t="n">
         <v>0.6172839506172839</v>
       </c>
+      <c r="H23" s="6" t="n">
+        <v>0.7901234567901234</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1163,6 +1246,9 @@
       <c r="G24" s="6" t="n">
         <v>0.7092198581560284</v>
       </c>
+      <c r="H24" s="6" t="n">
+        <v>0.7375886524822695</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1188,6 +1274,9 @@
       <c r="G25" s="6" t="n">
         <v>0.53125</v>
       </c>
+      <c r="H25" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1213,6 +1302,9 @@
       <c r="G26" s="6" t="n">
         <v>0.6190476190476191</v>
       </c>
+      <c r="H26" s="6" t="n">
+        <v>0.6190476190476191</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1238,6 +1330,9 @@
       <c r="G27" s="6" t="n">
         <v>0.3658536585365854</v>
       </c>
+      <c r="H27" s="6" t="n">
+        <v>0.5121951219512195</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1263,6 +1358,9 @@
       <c r="G28" s="6" t="n">
         <v>0.3658536585365854</v>
       </c>
+      <c r="H28" s="6" t="n">
+        <v>0.5121951219512195</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1288,6 +1386,9 @@
       <c r="G29" s="6" t="n">
         <v>0.4878048780487805</v>
       </c>
+      <c r="H29" s="6" t="n">
+        <v>0.6341463414634146</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1313,6 +1414,9 @@
       <c r="G30" s="6" t="n">
         <v>0.6451612903225806</v>
       </c>
+      <c r="H30" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1338,6 +1442,9 @@
       <c r="G31" s="6" t="n">
         <v>0.74375</v>
       </c>
+      <c r="H31" s="6" t="n">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1363,6 +1470,9 @@
       <c r="G32" s="6" t="n">
         <v>0.6470588235294118</v>
       </c>
+      <c r="H32" s="6" t="n">
+        <v>0.7941176470588235</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1388,6 +1498,9 @@
       <c r="G33" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H33" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1413,6 +1526,9 @@
       <c r="G34" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="H34" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1438,6 +1554,9 @@
       <c r="G35" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H35" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1463,6 +1582,9 @@
       <c r="G36" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H36" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1488,6 +1610,9 @@
       <c r="G37" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H37" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1513,6 +1638,9 @@
       <c r="G38" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H38" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1538,6 +1666,9 @@
       <c r="G39" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="H39" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1563,6 +1694,9 @@
       <c r="G40" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H40" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1588,6 +1722,9 @@
       <c r="G41" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H41" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1613,6 +1750,9 @@
       <c r="G42" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H42" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1638,6 +1778,9 @@
       <c r="G43" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H43" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1663,6 +1806,9 @@
       <c r="G44" s="6" t="n">
         <v>0.311864406779661</v>
       </c>
+      <c r="H44" s="6" t="n">
+        <v>0.4305084745762712</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1688,6 +1834,9 @@
       <c r="G45" s="6" t="n">
         <v>0.3662650602409638</v>
       </c>
+      <c r="H45" s="6" t="n">
+        <v>0.4305084745762712</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1713,6 +1862,9 @@
       <c r="G46" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H46" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1738,6 +1890,9 @@
       <c r="G47" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H47" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1763,6 +1918,9 @@
       <c r="G48" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H48" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1788,6 +1946,9 @@
       <c r="G49" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H49" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1813,6 +1974,9 @@
       <c r="G50" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H50" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1838,6 +2002,9 @@
       <c r="G51" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H51" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1863,6 +2030,9 @@
       <c r="G52" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H52" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1888,6 +2058,9 @@
       <c r="G53" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H53" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1913,6 +2086,9 @@
       <c r="G54" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H54" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1938,6 +2114,9 @@
       <c r="G55" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H55" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1963,6 +2142,9 @@
       <c r="G56" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H56" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1988,6 +2170,9 @@
       <c r="G57" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H57" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2013,6 +2198,9 @@
       <c r="G58" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H58" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2038,6 +2226,9 @@
       <c r="G59" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H59" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2061,6 +2252,9 @@
         <v>0</v>
       </c>
       <c r="G60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2118,7 +2312,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="6" t="n">
         <v/>
@@ -2169,7 +2363,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.1666666716337204</v>
+        <v>0.1428571492433548</v>
       </c>
     </row>
     <row r="7">

--- a/media/aa_outputs/aaOutputSheet.xlsx
+++ b/media/aa_outputs/aaOutputSheet.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,11 @@
           <t>Code 6</t>
         </is>
       </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Code 7</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n"/>
@@ -547,6 +552,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -584,6 +594,11 @@
           <t>Code 25</t>
         </is>
       </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>Code 16</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +624,9 @@
       <c r="G4" s="4" t="n">
         <v>1</v>
       </c>
+      <c r="H4" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -646,6 +664,11 @@
           <t>Code 2</t>
         </is>
       </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>Code 25</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -671,6 +694,9 @@
       <c r="G6" s="4" t="n">
         <v>0.9682539682539683</v>
       </c>
+      <c r="H6" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -708,6 +734,11 @@
           <t>Code 1</t>
         </is>
       </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>Code 1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -733,6 +764,9 @@
       <c r="G8" s="4" t="n">
         <v>0.8133333333333334</v>
       </c>
+      <c r="H8" s="4" t="n">
+        <v>0.8133333333333334</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -770,6 +804,11 @@
           <t>Code 17</t>
         </is>
       </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>Code 17</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -795,6 +834,9 @@
       <c r="G10" s="4" t="n">
         <v>0.74375</v>
       </c>
+      <c r="H10" s="4" t="n">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -832,6 +874,11 @@
           <t>Code 10</t>
         </is>
       </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>Code 2</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -857,6 +904,9 @@
       <c r="G12" s="4" t="n">
         <v>0.7092198581560284</v>
       </c>
+      <c r="H12" s="4" t="n">
+        <v>0.8095238095238095</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -882,6 +932,9 @@
       <c r="G13" s="5" t="n">
         <v>4.25</v>
       </c>
+      <c r="H13" s="5" t="n">
+        <v>10.75</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -913,6 +966,11 @@
           <t>A</t>
         </is>
       </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -938,6 +996,9 @@
       <c r="G15" s="6" t="n">
         <v>0.8133333333333334</v>
       </c>
+      <c r="H15" s="6" t="n">
+        <v>0.8133333333333334</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -963,6 +1024,9 @@
       <c r="G16" s="6" t="n">
         <v>0.9682539682539683</v>
       </c>
+      <c r="H16" s="6" t="n">
+        <v>0.8095238095238095</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -988,6 +1052,9 @@
       <c r="G17" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="H17" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1013,6 +1080,9 @@
       <c r="G18" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="H18" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1038,6 +1108,9 @@
       <c r="G19" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="H19" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1063,6 +1136,9 @@
       <c r="G20" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="H20" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1088,6 +1164,9 @@
       <c r="G21" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="H21" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1113,6 +1192,9 @@
       <c r="G22" s="6" t="n">
         <v>0.6172839506172839</v>
       </c>
+      <c r="H22" s="6" t="n">
+        <v>0.5402843601895735</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1138,6 +1220,9 @@
       <c r="G23" s="6" t="n">
         <v>0.6172839506172839</v>
       </c>
+      <c r="H23" s="6" t="n">
+        <v>0.5402843601895735</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1163,6 +1248,9 @@
       <c r="G24" s="6" t="n">
         <v>0.7092198581560284</v>
       </c>
+      <c r="H24" s="6" t="n">
+        <v>0.5682656826568265</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1188,6 +1276,9 @@
       <c r="G25" s="6" t="n">
         <v>0.53125</v>
       </c>
+      <c r="H25" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1213,6 +1304,9 @@
       <c r="G26" s="6" t="n">
         <v>0.6190476190476191</v>
       </c>
+      <c r="H26" s="6" t="n">
+        <v>0.6190476190476191</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1238,6 +1332,9 @@
       <c r="G27" s="6" t="n">
         <v>0.3658536585365854</v>
       </c>
+      <c r="H27" s="6" t="n">
+        <v>0.5121951219512195</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1263,6 +1360,9 @@
       <c r="G28" s="6" t="n">
         <v>0.3658536585365854</v>
       </c>
+      <c r="H28" s="6" t="n">
+        <v>0.5121951219512195</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1288,6 +1388,9 @@
       <c r="G29" s="6" t="n">
         <v>0.4878048780487805</v>
       </c>
+      <c r="H29" s="6" t="n">
+        <v>0.6341463414634146</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1313,6 +1416,9 @@
       <c r="G30" s="6" t="n">
         <v>0.6451612903225806</v>
       </c>
+      <c r="H30" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1338,6 +1444,9 @@
       <c r="G31" s="6" t="n">
         <v>0.74375</v>
       </c>
+      <c r="H31" s="6" t="n">
+        <v>0.8125</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1363,6 +1472,9 @@
       <c r="G32" s="6" t="n">
         <v>0.6470588235294118</v>
       </c>
+      <c r="H32" s="6" t="n">
+        <v>0.7019230769230769</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1388,6 +1500,9 @@
       <c r="G33" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H33" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1413,6 +1528,9 @@
       <c r="G34" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="H34" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1438,6 +1556,9 @@
       <c r="G35" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H35" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1463,6 +1584,9 @@
       <c r="G36" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H36" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1488,6 +1612,9 @@
       <c r="G37" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H37" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1513,6 +1640,9 @@
       <c r="G38" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H38" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1538,6 +1668,9 @@
       <c r="G39" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="H39" s="6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1563,6 +1696,9 @@
       <c r="G40" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H40" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1588,6 +1724,9 @@
       <c r="G41" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H41" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1613,6 +1752,9 @@
       <c r="G42" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H42" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1638,6 +1780,9 @@
       <c r="G43" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H43" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1663,6 +1808,9 @@
       <c r="G44" s="6" t="n">
         <v>0.311864406779661</v>
       </c>
+      <c r="H44" s="6" t="n">
+        <v>0.372972972972973</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1688,6 +1836,9 @@
       <c r="G45" s="6" t="n">
         <v>0.3662650602409638</v>
       </c>
+      <c r="H45" s="6" t="n">
+        <v>0.372972972972973</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1713,6 +1864,9 @@
       <c r="G46" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H46" s="6" t="n">
+        <v>0.5267857142857143</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1738,6 +1892,9 @@
       <c r="G47" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H47" s="6" t="n">
+        <v>0.6160714285714286</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1763,6 +1920,9 @@
       <c r="G48" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H48" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1788,6 +1948,9 @@
       <c r="G49" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H49" s="6" t="n">
+        <v>0.4615384615384616</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1813,6 +1976,9 @@
       <c r="G50" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H50" s="6" t="n">
+        <v>0.7981651376146789</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1838,6 +2004,9 @@
       <c r="G51" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H51" s="6" t="n">
+        <v>0.4375</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1863,6 +2032,9 @@
       <c r="G52" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H52" s="6" t="n">
+        <v>0.4375</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1888,6 +2060,9 @@
       <c r="G53" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H53" s="6" t="n">
+        <v>0.3846153846153846</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1913,6 +2088,9 @@
       <c r="G54" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H54" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1938,6 +2116,9 @@
       <c r="G55" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H55" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1963,6 +2144,9 @@
       <c r="G56" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H56" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1988,6 +2172,9 @@
       <c r="G57" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H57" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -2013,6 +2200,9 @@
       <c r="G58" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H58" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -2038,6 +2228,9 @@
       <c r="G59" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="H59" s="6" t="n">
+        <v>0.45</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -2061,6 +2254,9 @@
         <v>0</v>
       </c>
       <c r="G60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2118,7 +2314,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="6" t="n">
         <v/>
@@ -2169,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.1666666716337204</v>
+        <v>0.1428571492433548</v>
       </c>
     </row>
     <row r="7">

--- a/media/aa_outputs/aaOutputSheet.xlsx
+++ b/media/aa_outputs/aaOutputSheet.xlsx
@@ -470,7 +470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,16 @@
           <t>Code 1</t>
         </is>
       </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Code 2</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Code 3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n"/>
@@ -497,6 +507,16 @@
           <t>1</t>
         </is>
       </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -509,6 +529,16 @@
           <t>Code 11</t>
         </is>
       </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Code 36</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Code 42</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -519,6 +549,12 @@
       <c r="B4" s="4" t="n">
         <v>0.53125</v>
       </c>
+      <c r="C4" s="4" t="n">
+        <v>0.7981651376146789</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0.8540145985401459</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -531,6 +567,16 @@
           <t>Code 3</t>
         </is>
       </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Code 33</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>Code 8</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -541,6 +587,12 @@
       <c r="B6" s="4" t="n">
         <v>0.5</v>
       </c>
+      <c r="C6" s="4" t="n">
+        <v>0.6160714285714286</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -553,6 +605,16 @@
           <t>Code 4</t>
         </is>
       </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Code 18</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Code 9</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -563,6 +625,12 @@
       <c r="B8" s="4" t="n">
         <v>0.5</v>
       </c>
+      <c r="C8" s="4" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -575,6 +643,16 @@
           <t>Code 5</t>
         </is>
       </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>Code 32</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Code 10</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -585,6 +663,12 @@
       <c r="B10" s="4" t="n">
         <v>0.5</v>
       </c>
+      <c r="C10" s="4" t="n">
+        <v>0.5267857142857143</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -597,6 +681,16 @@
           <t>Code 6</t>
         </is>
       </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Code 35</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>Code 1</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -607,6 +701,12 @@
       <c r="B12" s="4" t="n">
         <v>0.5</v>
       </c>
+      <c r="C12" s="4" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -617,6 +717,12 @@
       <c r="B13" s="5" t="n">
         <v>2.5</v>
       </c>
+      <c r="C13" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>4.25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -629,6 +735,14 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -639,6 +753,12 @@
       <c r="B15" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -649,6 +769,12 @@
       <c r="B16" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -659,6 +785,12 @@
       <c r="B17" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="C17" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -669,6 +801,12 @@
       <c r="B18" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="C18" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -679,6 +817,12 @@
       <c r="B19" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="C19" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -689,6 +833,12 @@
       <c r="B20" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="C20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -699,6 +849,12 @@
       <c r="B21" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="C21" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -709,6 +865,12 @@
       <c r="B22" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C22" s="6" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -719,6 +881,12 @@
       <c r="B23" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C23" s="6" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -729,6 +897,12 @@
       <c r="B24" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C24" s="6" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -739,6 +913,12 @@
       <c r="B25" s="6" t="n">
         <v>0.53125</v>
       </c>
+      <c r="C25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -749,6 +929,12 @@
       <c r="B26" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -759,6 +945,12 @@
       <c r="B27" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -769,6 +961,12 @@
       <c r="B28" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C28" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -779,6 +977,12 @@
       <c r="B29" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C29" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -789,6 +993,12 @@
       <c r="B30" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C30" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -799,6 +1009,12 @@
       <c r="B31" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C31" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -809,6 +1025,12 @@
       <c r="B32" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C32" s="6" t="n">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -819,6 +1041,12 @@
       <c r="B33" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C33" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -829,6 +1057,12 @@
       <c r="B34" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="C34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -839,6 +1073,12 @@
       <c r="B35" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C35" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -849,6 +1089,12 @@
       <c r="B36" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C36" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -859,6 +1105,12 @@
       <c r="B37" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C37" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -869,6 +1121,12 @@
       <c r="B38" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C38" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -879,6 +1137,12 @@
       <c r="B39" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -889,6 +1153,12 @@
       <c r="B40" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C40" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -899,6 +1169,12 @@
       <c r="B41" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C41" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -909,6 +1185,12 @@
       <c r="B42" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C42" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -919,6 +1201,12 @@
       <c r="B43" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C43" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -929,6 +1217,12 @@
       <c r="B44" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C44" s="6" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -939,6 +1233,12 @@
       <c r="B45" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="C45" s="6" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -949,6 +1249,12 @@
       <c r="B46" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C46" s="6" t="n">
+        <v>0.5267857142857143</v>
+      </c>
+      <c r="D46" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -959,6 +1265,12 @@
       <c r="B47" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C47" s="6" t="n">
+        <v>0.6160714285714286</v>
+      </c>
+      <c r="D47" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -969,6 +1281,12 @@
       <c r="B48" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C48" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -979,6 +1297,12 @@
       <c r="B49" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C49" s="6" t="n">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="D49" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -989,6 +1313,12 @@
       <c r="B50" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C50" s="6" t="n">
+        <v>0.7981651376146789</v>
+      </c>
+      <c r="D50" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -999,6 +1329,12 @@
       <c r="B51" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C51" s="6" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="D51" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1009,6 +1345,12 @@
       <c r="B52" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C52" s="6" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="D52" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1019,6 +1361,12 @@
       <c r="B53" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C53" s="6" t="n">
+        <v>0.3846153846153846</v>
+      </c>
+      <c r="D53" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1029,6 +1377,12 @@
       <c r="B54" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C54" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1039,6 +1393,12 @@
       <c r="B55" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C55" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1049,6 +1409,12 @@
       <c r="B56" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C56" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" s="6" t="n">
+        <v>0.8540145985401459</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1059,6 +1425,12 @@
       <c r="B57" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C57" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1069,6 +1441,12 @@
       <c r="B58" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C58" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1079,6 +1457,12 @@
       <c r="B59" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="C59" s="6" t="n">
+        <v>0.4454545454545454</v>
+      </c>
+      <c r="D59" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1087,6 +1471,12 @@
         </is>
       </c>
       <c r="B60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1144,7 +1534,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="6" t="n">
         <v/>
